--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2549719.093486668</v>
+        <v>2551506.938558232</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>420028.6875023815</v>
+        <v>420028.6875023818</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9110708.708861636</v>
+        <v>9110708.708861638</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.05642108929943</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>6.876045741711437</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="S4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,11 +913,11 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1065,10 +1065,10 @@
         <v>6.056421089299432</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>12.46326292246987</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>14.14993519808115</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>14.14993519808115</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>5.587217180758437</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="E9" t="n">
-        <v>12.46326292246987</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>14.14993519808115</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>12.46326292246987</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1311,55 +1311,55 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>14.14993519808115</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>14.14993519808115</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>14.14993519808115</v>
+      </c>
+      <c r="X10" t="n">
         <v>12.46326292246987</v>
       </c>
-      <c r="J10" t="n">
-        <v>14.14993519808115</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>14.14993519808115</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>34.21058558914957</v>
       </c>
       <c r="G13" t="n">
-        <v>121.8000472740351</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.41986852521121</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>25.73194049497408</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>163.3736250957656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>46.35517081455656</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>129.0096827405969</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>216.2406893673816</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>22.44547853568561</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>74.4191768313308</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>28.75188085812055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>172.5044270888895</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>32.81060261323915</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>210.1286019540773</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>96.03245356584291</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>52.10645541514119</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>66.43694060668919</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F2" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G2" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H2" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I2" t="n">
         <v>0.5500836593369149</v>
@@ -4333,49 +4333,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M2" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>15.53609936506085</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>15.53609936506085</v>
       </c>
       <c r="P2" t="n">
-        <v>27.50418296684575</v>
+        <v>22.34338464935517</v>
       </c>
       <c r="Q2" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="3">
@@ -4409,46 +4409,46 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.856703976333827</v>
       </c>
       <c r="K3" t="n">
-        <v>7.357368943631237</v>
+        <v>6.856703976333827</v>
       </c>
       <c r="L3" t="n">
-        <v>14.16465422792556</v>
+        <v>13.66398926062815</v>
       </c>
       <c r="M3" t="n">
-        <v>20.97193951221988</v>
+        <v>13.66398926062815</v>
       </c>
       <c r="N3" t="n">
-        <v>27.50418296684575</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U3" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V3" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W3" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X3" t="n">
         <v>7.495584408540386</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C4" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D4" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E4" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F4" t="n">
         <v>7.495584408540386</v>
       </c>
       <c r="G4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>7.357368943631237</v>
+        <v>2.214854686289194</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792556</v>
+        <v>9.022139970583517</v>
       </c>
       <c r="N4" t="n">
-        <v>20.97193951221988</v>
+        <v>15.82942525487784</v>
       </c>
       <c r="O4" t="n">
-        <v>22.63671053917217</v>
+        <v>22.63671053917216</v>
       </c>
       <c r="P4" t="n">
         <v>27.50418296684575</v>
@@ -4512,7 +4512,7 @@
         <v>20.55868221764227</v>
       </c>
       <c r="R4" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S4" t="n">
         <v>14.44108515774386</v>
@@ -4530,10 +4530,10 @@
         <v>14.44108515774386</v>
       </c>
       <c r="X4" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E5" t="n">
         <v>21.38658590694733</v>
@@ -4561,7 +4561,7 @@
         <v>7.495584408540386</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
@@ -4570,22 +4570,22 @@
         <v>7.357368943631237</v>
       </c>
       <c r="K5" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="L5" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>14.16465422792556</v>
+      </c>
+      <c r="N5" t="n">
         <v>20.97193951221988</v>
       </c>
-      <c r="M5" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="N5" t="n">
-        <v>27.50418296684575</v>
-      </c>
       <c r="O5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="Q5" t="n">
         <v>27.50418296684575</v>
@@ -4594,25 +4594,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5500836593369149</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5500836593369149</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F6" t="n">
         <v>0.5500836593369149</v>
@@ -4652,16 +4652,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N6" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O6" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="P6" t="n">
         <v>20.69689768255142</v>
@@ -4682,16 +4682,16 @@
         <v>27.50418296684575</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W6" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X6" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5500836593369149</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="7">
@@ -4713,7 +4713,7 @@
         <v>7.495584408540386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G7" t="n">
         <v>0.5500836593369149</v>
@@ -4731,16 +4731,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M7" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="N7" t="n">
-        <v>20.97193951221988</v>
-      </c>
       <c r="O7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.59974079232461</v>
+        <v>36.66322323794118</v>
       </c>
       <c r="C8" t="n">
-        <v>56.59974079232461</v>
+        <v>36.66322323794118</v>
       </c>
       <c r="D8" t="n">
-        <v>44.01058632518333</v>
+        <v>36.66322323794118</v>
       </c>
       <c r="E8" t="n">
+        <v>36.66322323794118</v>
+      </c>
+      <c r="F8" t="n">
         <v>29.71772248873771</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>15.4248586522921</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.131994815846492</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.131994815846492</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="I8" t="n">
         <v>1.131994815846492</v>
@@ -4807,13 +4807,13 @@
         <v>1.131994815846492</v>
       </c>
       <c r="K8" t="n">
-        <v>1.131994815846492</v>
+        <v>14.57443325402359</v>
       </c>
       <c r="L8" t="n">
-        <v>1.131994815846492</v>
+        <v>28.58286910012393</v>
       </c>
       <c r="M8" t="n">
-        <v>14.57443325402359</v>
+        <v>28.58286910012393</v>
       </c>
       <c r="N8" t="n">
         <v>28.58286910012393</v>
@@ -4831,25 +4831,25 @@
         <v>56.59974079232461</v>
       </c>
       <c r="S8" t="n">
-        <v>56.59974079232461</v>
+        <v>50.95608707438679</v>
       </c>
       <c r="T8" t="n">
-        <v>56.59974079232461</v>
+        <v>50.95608707438679</v>
       </c>
       <c r="U8" t="n">
-        <v>56.59974079232461</v>
+        <v>36.66322323794118</v>
       </c>
       <c r="V8" t="n">
-        <v>56.59974079232461</v>
+        <v>36.66322323794118</v>
       </c>
       <c r="W8" t="n">
-        <v>56.59974079232461</v>
+        <v>36.66322323794118</v>
       </c>
       <c r="X8" t="n">
-        <v>56.59974079232461</v>
+        <v>36.66322323794118</v>
       </c>
       <c r="Y8" t="n">
-        <v>56.59974079232461</v>
+        <v>36.66322323794118</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56.59974079232461</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="C9" t="n">
-        <v>56.59974079232461</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="D9" t="n">
-        <v>56.59974079232461</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="E9" t="n">
-        <v>44.01058632518333</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="F9" t="n">
-        <v>44.01058632518333</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="G9" t="n">
-        <v>29.71772248873771</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="H9" t="n">
         <v>15.4248586522921</v>
@@ -4898,7 +4898,7 @@
         <v>29.14886650804717</v>
       </c>
       <c r="O9" t="n">
-        <v>42.59130494622427</v>
+        <v>43.15730235414752</v>
       </c>
       <c r="P9" t="n">
         <v>56.59974079232461</v>
@@ -4907,28 +4907,28 @@
         <v>56.59974079232461</v>
       </c>
       <c r="R9" t="n">
-        <v>56.59974079232461</v>
+        <v>44.01058632518333</v>
       </c>
       <c r="S9" t="n">
-        <v>56.59974079232461</v>
+        <v>44.01058632518333</v>
       </c>
       <c r="T9" t="n">
-        <v>56.59974079232461</v>
+        <v>44.01058632518333</v>
       </c>
       <c r="U9" t="n">
-        <v>56.59974079232461</v>
+        <v>44.01058632518333</v>
       </c>
       <c r="V9" t="n">
-        <v>56.59974079232461</v>
+        <v>44.01058632518333</v>
       </c>
       <c r="W9" t="n">
-        <v>56.59974079232461</v>
+        <v>44.01058632518333</v>
       </c>
       <c r="X9" t="n">
-        <v>56.59974079232461</v>
+        <v>44.01058632518333</v>
       </c>
       <c r="Y9" t="n">
-        <v>56.59974079232461</v>
+        <v>44.01058632518333</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.01401311943339</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="C10" t="n">
-        <v>28.01401311943339</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="D10" t="n">
-        <v>28.01401311943339</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="E10" t="n">
-        <v>28.01401311943339</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="F10" t="n">
-        <v>28.01401311943339</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="G10" t="n">
-        <v>28.01401311943339</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="H10" t="n">
-        <v>28.01401311943339</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="I10" t="n">
-        <v>15.4248586522921</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="J10" t="n">
         <v>1.131994815846492</v>
@@ -4968,31 +4968,31 @@
         <v>15.14043066194683</v>
       </c>
       <c r="L10" t="n">
-        <v>28.58286910012393</v>
+        <v>29.14886650804717</v>
       </c>
       <c r="M10" t="n">
-        <v>42.59130494622427</v>
+        <v>29.14886650804717</v>
       </c>
       <c r="N10" t="n">
-        <v>42.59130494622427</v>
+        <v>29.14886650804717</v>
       </c>
       <c r="O10" t="n">
-        <v>42.59130494622427</v>
+        <v>43.15730235414752</v>
       </c>
       <c r="P10" t="n">
         <v>56.59974079232461</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.306876955879</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="R10" t="n">
-        <v>42.306876955879</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="S10" t="n">
-        <v>42.306876955879</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="T10" t="n">
-        <v>42.306876955879</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="U10" t="n">
         <v>42.306876955879</v>
@@ -5001,13 +5001,13 @@
         <v>42.306876955879</v>
       </c>
       <c r="W10" t="n">
-        <v>42.306876955879</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="X10" t="n">
-        <v>42.306876955879</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.01401311943339</v>
+        <v>15.4248586522921</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684982</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649658</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>377.6556127449254</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277359</v>
+        <v>377.6556127449254</v>
       </c>
       <c r="F13" t="n">
-        <v>216.8470138298256</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="14">
@@ -5275,16 +5275,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5308,10 +5308,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5360,16 +5360,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770323</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232836</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072721</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5542,13 +5542,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5597,16 +5597,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311994</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032925</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909568</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>482.6390612909568</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>482.6390612909568</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614391</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5937,25 +5937,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6077,10 +6077,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6311,13 +6311,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2424.290883039164</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2241.436048694068</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2021.834583717009</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1732.759357061207</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6454,61 +6454,61 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6551,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>854.7852236114967</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,19 +6955,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7025,10 +7025,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7259,13 +7259,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2051.857136150238</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1762.781909494436</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1508.097421288549</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1218.680251251588</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,52 +7399,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>709.4207169875</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>561.5076234051069</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>414.6176759071965</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7627,10 +7627,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,19 +7721,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
         <v>1373.553594266881</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703114</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424045</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D46" t="n">
-        <v>376.4492432300688</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>228.5361496476756</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
         <v>175.9033664000583</v>
@@ -7803,55 +7803,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>209.057009577846</v>
       </c>
       <c r="L2" t="n">
         <v>213.5488567752802</v>
       </c>
       <c r="M2" t="n">
-        <v>212.2231445822437</v>
+        <v>212.5009646122118</v>
       </c>
       <c r="N2" t="n">
-        <v>211.167778269899</v>
+        <v>205.677030646506</v>
       </c>
       <c r="O2" t="n">
-        <v>213.252896592586</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P2" t="n">
         <v>217.8634090628659</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>132.5535436227116</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>129.0745055979979</v>
       </c>
       <c r="M3" t="n">
-        <v>129.9234925718064</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>118.3481855367425</v>
+        <v>111.9778619842204</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>131.5496644292654</v>
       </c>
       <c r="P3" t="n">
         <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>137.2421710355686</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>132.371579436055</v>
+        <v>127.177120590255</v>
       </c>
       <c r="M4" t="n">
         <v>135.9022952863677</v>
@@ -8151,7 +8151,7 @@
         <v>124.8974446055506</v>
       </c>
       <c r="O4" t="n">
-        <v>131.2117226975745</v>
+        <v>136.4061815433745</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>122.9982046141527</v>
+        <v>122.9982046141533</v>
       </c>
       <c r="K5" t="n">
-        <v>129.6620317958536</v>
+        <v>122.785986054143</v>
       </c>
       <c r="L5" t="n">
-        <v>121.9284119942534</v>
+        <v>121.9284119942545</v>
       </c>
       <c r="M5" t="n">
-        <v>102.6268206337573</v>
+        <v>96.02859492201526</v>
       </c>
       <c r="N5" t="n">
-        <v>92.92202547878566</v>
+        <v>99.79807122049831</v>
       </c>
       <c r="O5" t="n">
-        <v>101.2135945572065</v>
+        <v>101.2135945572077</v>
       </c>
       <c r="P5" t="n">
-        <v>121.2329571124324</v>
+        <v>121.2329571124334</v>
       </c>
       <c r="Q5" t="n">
-        <v>139.7002419176919</v>
+        <v>146.298467629436</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>88.16948852718255</v>
+        <v>88.16948852718291</v>
       </c>
       <c r="K6" t="n">
-        <v>71.75143192355414</v>
+        <v>71.75143192355473</v>
       </c>
       <c r="L6" t="n">
-        <v>49.68820928662122</v>
+        <v>56.56425502833345</v>
       </c>
       <c r="M6" t="n">
-        <v>45.30745024457568</v>
+        <v>45.30745024457661</v>
       </c>
       <c r="N6" t="n">
-        <v>31.49260835200201</v>
+        <v>24.89438264025968</v>
       </c>
       <c r="O6" t="n">
-        <v>52.09377991956678</v>
+        <v>45.21773417785622</v>
       </c>
       <c r="P6" t="n">
-        <v>55.81956788427777</v>
+        <v>62.41779359602175</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.61337934625362</v>
+        <v>94.61337934625409</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>89.148027189131</v>
+        <v>89.14802718913135</v>
       </c>
       <c r="L7" t="n">
-        <v>90.74695148539983</v>
+        <v>83.87090574368885</v>
       </c>
       <c r="M7" t="n">
-        <v>92.01496131589272</v>
+        <v>92.0149613158932</v>
       </c>
       <c r="N7" t="n">
-        <v>82.05365334387885</v>
+        <v>82.05365334387932</v>
       </c>
       <c r="O7" t="n">
-        <v>96.55518581469126</v>
+        <v>96.5551858146917</v>
       </c>
       <c r="P7" t="n">
-        <v>96.22823621060272</v>
+        <v>103.1042819523145</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8455,16 +8455,16 @@
         <v>83.20324886963371</v>
       </c>
       <c r="K8" t="n">
-        <v>73.44907330703683</v>
+        <v>87.02729395166016</v>
       </c>
       <c r="L8" t="n">
-        <v>53.84556332150555</v>
+        <v>67.9954985195867</v>
       </c>
       <c r="M8" t="n">
-        <v>41.50245401750728</v>
+        <v>27.92423337288395</v>
       </c>
       <c r="N8" t="n">
-        <v>37.86559935695391</v>
+        <v>23.71566415887276</v>
       </c>
       <c r="O8" t="n">
         <v>50.01392522225433</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.421193964642683</v>
+        <v>9.992908518100506</v>
       </c>
       <c r="P9" t="n">
-        <v>30.34190453813595</v>
+        <v>29.77018998467812</v>
       </c>
       <c r="Q9" t="n">
         <v>61.24733342008113</v>
@@ -8616,19 +8616,19 @@
         <v>83.0847116313667</v>
       </c>
       <c r="L10" t="n">
-        <v>71.58312459949352</v>
+        <v>72.15483915295134</v>
       </c>
       <c r="M10" t="n">
-        <v>72.01677856701649</v>
+        <v>57.86684336893533</v>
       </c>
       <c r="N10" t="n">
         <v>48.55400431788362</v>
       </c>
       <c r="O10" t="n">
-        <v>65.36575331485054</v>
+        <v>79.51568851293169</v>
       </c>
       <c r="P10" t="n">
-        <v>89.33614573921847</v>
+        <v>88.76443118576064</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -10114,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.115261047703417e-12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.661746832800099</v>
+        <v>7.661746832800106</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>111.2104624337817</v>
       </c>
       <c r="G13" t="n">
-        <v>43.72409101823372</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.8269525734166</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>260.4525338942701</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.150513196503198</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>179.3544845744806</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>17.42427990597227</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>9.468966021655518</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>43.92976817443608</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>74.19629618688155</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>114.0185712477015</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>147.0213775686981</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>7.276848373210953</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>69.49168472642593</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>93.31459260779005</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>152.1477127454056</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>820720.3166597883</v>
+        <v>820720.3166597886</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156785</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156786</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>656305.7696020391</v>
       </c>
       <c r="C2" t="n">
-        <v>656345.5158531135</v>
+        <v>656345.5158531142</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520055</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>36051.26318243808</v>
       </c>
       <c r="C3" t="n">
-        <v>141378.9676610294</v>
+        <v>141378.9676610278</v>
       </c>
       <c r="D3" t="n">
-        <v>84885.90196742011</v>
+        <v>84885.90196742158</v>
       </c>
       <c r="E3" t="n">
         <v>1214572.152861545</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044258</v>
+        <v>1799.076112044347</v>
       </c>
       <c r="K3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1840.955956402002</v>
+        <v>1840.955956402125</v>
       </c>
       <c r="M3" t="n">
-        <v>288717.3757764823</v>
+        <v>288717.3757764822</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411492.6121935258</v>
+        <v>411492.6121935259</v>
       </c>
       <c r="C4" t="n">
-        <v>375913.3011113851</v>
+        <v>375913.3011113856</v>
       </c>
       <c r="D4" t="n">
         <v>353530.8414321567</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756628</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.200356756657</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756544</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>34809.12706477298</v>
       </c>
       <c r="C5" t="n">
-        <v>38193.76875786221</v>
+        <v>38193.76875786218</v>
       </c>
       <c r="D5" t="n">
         <v>40739.27482484731</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173936.2782147588</v>
+        <v>173951.1182666478</v>
       </c>
       <c r="C6" t="n">
-        <v>100844.2314466395</v>
+        <v>100857.9536352189</v>
       </c>
       <c r="D6" t="n">
-        <v>177677.3976670023</v>
+        <v>177677.3976670011</v>
       </c>
       <c r="E6" t="n">
-        <v>-679661.9825445607</v>
+        <v>-679349.3412156395</v>
       </c>
       <c r="F6" t="n">
-        <v>534910.1703169844</v>
+        <v>535222.8116459062</v>
       </c>
       <c r="G6" t="n">
-        <v>534910.1703169844</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="H6" t="n">
-        <v>534910.1703169844</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="I6" t="n">
-        <v>534910.1703169844</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="J6" t="n">
-        <v>533111.0942049403</v>
+        <v>533423.7355338613</v>
       </c>
       <c r="K6" t="n">
-        <v>534910.1703169842</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="L6" t="n">
-        <v>533069.2143605825</v>
+        <v>533381.8556895035</v>
       </c>
       <c r="M6" t="n">
-        <v>246192.7945405022</v>
+        <v>246505.4358694233</v>
       </c>
       <c r="N6" t="n">
-        <v>534910.1703169844</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="O6" t="n">
-        <v>534910.1703169842</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="P6" t="n">
-        <v>534910.1703169849</v>
+        <v>535222.8116459057</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>190.2800539800992</v>
+        <v>190.2800539800975</v>
       </c>
       <c r="D3" t="n">
         <v>286.759576367155</v>
@@ -26807,31 +26807,31 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26934,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>155.2587932609739</v>
+        <v>155.2587932609722</v>
       </c>
       <c r="D3" t="n">
-        <v>96.47952238705578</v>
+        <v>96.4795223870575</v>
       </c>
       <c r="E3" t="n">
         <v>1081.215923974519</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-4.313673211405653e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,7 +27023,7 @@
         <v>1158.558352901568</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711096</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.273889456369716</v>
+        <v>7.273889456369943</v>
       </c>
       <c r="M4" t="n">
-        <v>1158.558352901568</v>
+        <v>1158.558352901567</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>198.9917010283464</v>
+        <v>198.1720763759344</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.1492359435679</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>199.7554194370984</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>89.42442281108013</v>
+        <v>88.60479815866813</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27520,10 +27520,10 @@
         <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>245.6385620716202</v>
       </c>
       <c r="X3" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>198.8066500355929</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>138.5450022812198</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>161.0517805236473</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>8.05620490400057</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>73.99778714139502</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>168.39737757448</v>
       </c>
       <c r="S4" t="n">
-        <v>216.8595907706472</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>375.8739489829624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>324.7647640008951</v>
+        <v>331.6408097426067</v>
       </c>
       <c r="I5" t="n">
-        <v>180.9853497470179</v>
+        <v>174.1093040053067</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>101.8181453147078</v>
+        <v>101.8181453147083</v>
       </c>
       <c r="S5" t="n">
-        <v>191.588886751787</v>
+        <v>185.5324656624877</v>
       </c>
       <c r="T5" t="n">
-        <v>219.7473030865519</v>
+        <v>219.747303086552</v>
       </c>
       <c r="U5" t="n">
         <v>251.2844573125866</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>160.4767625605679</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G6" t="n">
         <v>136.9342355376685</v>
       </c>
       <c r="H6" t="n">
-        <v>108.2826453792872</v>
+        <v>108.2826453792873</v>
       </c>
       <c r="I6" t="n">
-        <v>75.30513828779452</v>
+        <v>75.30513828779465</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>74.74647147205553</v>
+        <v>74.74647147205576</v>
       </c>
       <c r="S6" t="n">
-        <v>164.0809444188782</v>
+        <v>164.0809444188783</v>
       </c>
       <c r="T6" t="n">
         <v>198.5150365287111</v>
@@ -27754,16 +27754,16 @@
         <v>225.9144556582418</v>
       </c>
       <c r="V6" t="n">
-        <v>225.9245414077138</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.6262746880049</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27785,19 +27785,19 @@
         <v>140.3775415572698</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.6478513922651</v>
+        <v>160.7718056505537</v>
       </c>
       <c r="H7" t="n">
         <v>159.1764529534636</v>
       </c>
       <c r="I7" t="n">
-        <v>145.1316811802719</v>
+        <v>145.131681180272</v>
       </c>
       <c r="J7" t="n">
-        <v>69.10003290678374</v>
+        <v>69.10003290678395</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.55370935898796</v>
+        <v>50.55370935898822</v>
       </c>
       <c r="R7" t="n">
-        <v>154.9890645373339</v>
+        <v>154.9890645373341</v>
       </c>
       <c r="S7" t="n">
         <v>218.0368133897616</v>
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>342.2197786982131</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>367.7804348741806</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>392.7261105436303</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>327.668665386239</v>
       </c>
       <c r="I8" t="n">
-        <v>166.0324782421858</v>
+        <v>151.8825430441047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>77.45439939251328</v>
       </c>
       <c r="S8" t="n">
-        <v>182.7505867863798</v>
+        <v>177.1633696056214</v>
       </c>
       <c r="T8" t="n">
         <v>218.0494574212279</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2534287224722</v>
+        <v>237.103493524391</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>152.3832484517862</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>133.2951303665576</v>
       </c>
       <c r="E9" t="n">
-        <v>145.1818175329311</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>122.5767783480379</v>
+        <v>136.726713546119</v>
       </c>
       <c r="H9" t="n">
-        <v>92.12848463124101</v>
+        <v>106.2784198293222</v>
       </c>
       <c r="I9" t="n">
         <v>54.01025732803046</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>61.86190431251626</v>
+        <v>49.39864139004639</v>
       </c>
       <c r="S9" t="n">
         <v>160.2263144442633</v>
@@ -28031,10 +28031,10 @@
         <v>157.6296173322416</v>
       </c>
       <c r="I10" t="n">
-        <v>127.4363812076974</v>
+        <v>125.7497089320862</v>
       </c>
       <c r="J10" t="n">
-        <v>42.64974942011024</v>
+        <v>56.79968461819139</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.71141202217282</v>
+        <v>42.86134722025398</v>
       </c>
       <c r="R10" t="n">
         <v>154.0423608081211</v>
@@ -28067,19 +28067,19 @@
         <v>225.7361303972559</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2908234965204</v>
+        <v>272.1408882984392</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.3730631385098</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>213.2463924665673</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.4347181540136</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31074,16 +31074,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31141,7 +31141,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
         <v>9.899534402948818</v>
@@ -31223,10 +31223,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
         <v>5.288210368587925</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7649449406235139</v>
+        <v>0.764944940623507</v>
       </c>
       <c r="H5" t="n">
-        <v>7.833992373160564</v>
+        <v>7.833992373160494</v>
       </c>
       <c r="I5" t="n">
-        <v>29.49053982338805</v>
+        <v>29.49053982338778</v>
       </c>
       <c r="J5" t="n">
-        <v>64.92374565424502</v>
+        <v>64.92374565424444</v>
       </c>
       <c r="K5" t="n">
-        <v>97.30386499083839</v>
+        <v>97.30386499083752</v>
       </c>
       <c r="L5" t="n">
-        <v>120.7140487174453</v>
+        <v>120.7140487174442</v>
       </c>
       <c r="M5" t="n">
-        <v>134.3176383052587</v>
+        <v>134.3176383052575</v>
       </c>
       <c r="N5" t="n">
-        <v>136.4910381178053</v>
+        <v>136.491038117804</v>
       </c>
       <c r="O5" t="n">
-        <v>128.8846168644802</v>
+        <v>128.884616864479</v>
       </c>
       <c r="P5" t="n">
-        <v>110.0000386428372</v>
+        <v>110.0000386428362</v>
       </c>
       <c r="Q5" t="n">
-        <v>82.60544795675754</v>
+        <v>82.60544795675681</v>
       </c>
       <c r="R5" t="n">
-        <v>48.05097262644185</v>
+        <v>48.05097262644142</v>
       </c>
       <c r="S5" t="n">
-        <v>17.43118283445834</v>
+        <v>17.43118283445818</v>
       </c>
       <c r="T5" t="n">
-        <v>3.348546477579434</v>
+        <v>3.348546477579404</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06119559524988111</v>
+        <v>0.06119559524988055</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4092816255421003</v>
+        <v>0.4092816255420966</v>
       </c>
       <c r="H6" t="n">
-        <v>3.952798857209232</v>
+        <v>3.952798857209197</v>
       </c>
       <c r="I6" t="n">
-        <v>14.09149456362056</v>
+        <v>14.09149456362043</v>
       </c>
       <c r="J6" t="n">
-        <v>38.66813813948414</v>
+        <v>38.66813813948379</v>
       </c>
       <c r="K6" t="n">
-        <v>66.09000705080486</v>
+        <v>66.09000705080426</v>
       </c>
       <c r="L6" t="n">
-        <v>88.86617049325297</v>
+        <v>88.86617049325217</v>
       </c>
       <c r="M6" t="n">
-        <v>103.7026294191541</v>
+        <v>103.7026294191531</v>
       </c>
       <c r="N6" t="n">
-        <v>106.4473294430746</v>
+        <v>106.4473294430736</v>
       </c>
       <c r="O6" t="n">
-        <v>97.37851026658909</v>
+        <v>97.37851026658822</v>
       </c>
       <c r="P6" t="n">
-        <v>78.15483953005247</v>
+        <v>78.15483953005177</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.24444048147933</v>
+        <v>52.24444048147886</v>
       </c>
       <c r="R6" t="n">
-        <v>25.4113626805876</v>
+        <v>25.41136268058738</v>
       </c>
       <c r="S6" t="n">
-        <v>7.602226684959621</v>
+        <v>7.602226684959552</v>
       </c>
       <c r="T6" t="n">
-        <v>1.649692166110482</v>
+        <v>1.649692166110468</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02692642273303292</v>
+        <v>0.02692642273303268</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3431279661936215</v>
+        <v>0.3431279661936185</v>
       </c>
       <c r="H7" t="n">
-        <v>3.050719553976019</v>
+        <v>3.050719553975992</v>
       </c>
       <c r="I7" t="n">
-        <v>10.31879374698637</v>
+        <v>10.31879374698627</v>
       </c>
       <c r="J7" t="n">
-        <v>24.25914720988904</v>
+        <v>24.25914720988882</v>
       </c>
       <c r="K7" t="n">
-        <v>39.86523098140439</v>
+        <v>39.86523098140403</v>
       </c>
       <c r="L7" t="n">
-        <v>51.01377053754989</v>
+        <v>51.01377053754943</v>
       </c>
       <c r="M7" t="n">
-        <v>53.78686837342378</v>
+        <v>53.7868683734233</v>
       </c>
       <c r="N7" t="n">
-        <v>52.50793686306578</v>
+        <v>52.5079368630653</v>
       </c>
       <c r="O7" t="n">
-        <v>48.49957834889481</v>
+        <v>48.49957834889438</v>
       </c>
       <c r="P7" t="n">
-        <v>41.4997678385449</v>
+        <v>41.49976783854453</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.73228815099499</v>
+        <v>28.73228815099473</v>
       </c>
       <c r="R7" t="n">
-        <v>15.42828109812411</v>
+        <v>15.42828109812397</v>
       </c>
       <c r="S7" t="n">
-        <v>5.979784647210657</v>
+        <v>5.979784647210604</v>
       </c>
       <c r="T7" t="n">
-        <v>1.466092219190928</v>
+        <v>1.466092219190915</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01871607088328847</v>
+        <v>0.0187160708832883</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>223.6976288294612</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N2" t="n">
-        <v>6.876045741711437</v>
+        <v>1.385298118318474</v>
       </c>
       <c r="O2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2279021592211622</v>
+      </c>
+      <c r="O3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N3" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>1.681586895911393</v>
       </c>
       <c r="M4" t="n">
         <v>6.876045741711437</v>
@@ -34871,10 +34871,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>1.681586895911398</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
-        <v>4.9166388158319</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N6" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q6" t="n">
         <v>6.876045741711437</v>
@@ -35099,7 +35099,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
@@ -35111,7 +35111,7 @@
         <v>6.598225711743297</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>13.57822064462333</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="M8" t="n">
-        <v>13.57822064462333</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>14.14993519808115</v>
@@ -35266,10 +35266,10 @@
         <v>14.14993519808115</v>
       </c>
       <c r="O9" t="n">
+        <v>14.14993519808115</v>
+      </c>
+      <c r="P9" t="n">
         <v>13.57822064462333</v>
-      </c>
-      <c r="P9" t="n">
-        <v>14.14993519808115</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>14.14993519808115</v>
       </c>
       <c r="L10" t="n">
+        <v>14.14993519808115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>14.14993519808115</v>
+      </c>
+      <c r="P10" t="n">
         <v>13.57822064462333</v>
-      </c>
-      <c r="M10" t="n">
-        <v>14.14993519808115</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>14.14993519808115</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>81.10138438501673</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36208,13 +36208,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462711</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075152</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
